--- a/data/comparison/promt2_prompt4.xlsx
+++ b/data/comparison/promt2_prompt4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A3BBE-D0C8-428B-A0B9-9BF5E2B8EB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F47BC-5EB9-467D-89EC-50228B0825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="promt2_prompt4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="439">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1278,13 +1277,73 @@
   </si>
   <si>
     <t>telecom</t>
+  </si>
+  <si>
+    <t>health platform</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>https://247games.com/</t>
+  </si>
+  <si>
+    <t>Internet Infra software</t>
+  </si>
+  <si>
+    <t>Server provider</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>https://ovo.sc/</t>
+  </si>
+  <si>
+    <t>OvO Systems Ltd</t>
+  </si>
+  <si>
+    <t>https://www.mlg.com/</t>
+  </si>
+  <si>
+    <t>Polyfill.io reads the User-Agent header of each request and returns polyfills that are suitable for the requesting browser.</t>
+  </si>
+  <si>
+    <t>CyberGhost SA</t>
+  </si>
+  <si>
+    <t>https://www.cyberghostvpn.com/en_US/</t>
+  </si>
+  <si>
+    <t>file sharing</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>game server</t>
+  </si>
+  <si>
+    <t>pirate website</t>
+  </si>
+  <si>
+    <t>alkTalk Communications Limited</t>
+  </si>
+  <si>
+    <t>https://www.talktalkgroup.com/</t>
+  </si>
+  <si>
+    <t>Ansira</t>
+  </si>
+  <si>
+    <t>https://www.ansira.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +1485,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1776,10 +1841,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2138,10 +2205,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="K200" sqref="K200:K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5054,7 +5121,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5083,7 +5150,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5094,7 +5161,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5123,7 +5190,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5152,7 +5219,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5181,7 +5248,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5200,8 +5267,20 @@
       <c r="F102" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>394</v>
+      </c>
+      <c r="I102" t="s">
+        <v>394</v>
+      </c>
+      <c r="K102" t="s">
+        <v>395</v>
+      </c>
+      <c r="L102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5220,8 +5299,20 @@
       <c r="F103" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>394</v>
+      </c>
+      <c r="I103" t="s">
+        <v>394</v>
+      </c>
+      <c r="K103" t="s">
+        <v>395</v>
+      </c>
+      <c r="L103" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5234,14 +5325,23 @@
       <c r="D104" t="s">
         <v>210</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F104" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G104" t="s">
+        <v>394</v>
+      </c>
+      <c r="I104" t="s">
+        <v>394</v>
+      </c>
+      <c r="K104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5260,8 +5360,17 @@
       <c r="F105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G105" t="s">
+        <v>394</v>
+      </c>
+      <c r="I105" t="s">
+        <v>394</v>
+      </c>
+      <c r="K105" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5280,8 +5389,17 @@
       <c r="F106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G106" t="s">
+        <v>394</v>
+      </c>
+      <c r="I106" t="s">
+        <v>394</v>
+      </c>
+      <c r="K106" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5300,8 +5418,17 @@
       <c r="F107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G107" t="s">
+        <v>394</v>
+      </c>
+      <c r="I107" t="s">
+        <v>394</v>
+      </c>
+      <c r="K107" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5320,8 +5447,20 @@
       <c r="F108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G108" t="s">
+        <v>394</v>
+      </c>
+      <c r="I108" t="s">
+        <v>394</v>
+      </c>
+      <c r="K108" t="s">
+        <v>395</v>
+      </c>
+      <c r="L108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5340,8 +5479,20 @@
       <c r="F109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G109" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" t="s">
+        <v>394</v>
+      </c>
+      <c r="K109" t="s">
+        <v>395</v>
+      </c>
+      <c r="L109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5360,8 +5511,20 @@
       <c r="F110" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G110" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" t="s">
+        <v>394</v>
+      </c>
+      <c r="K110" t="s">
+        <v>395</v>
+      </c>
+      <c r="L110" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5380,8 +5543,20 @@
       <c r="F111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G111" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" t="s">
+        <v>394</v>
+      </c>
+      <c r="K111" t="s">
+        <v>395</v>
+      </c>
+      <c r="L111" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5400,8 +5575,14 @@
       <c r="F112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112" t="s">
+        <v>396</v>
+      </c>
+      <c r="I112" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5420,8 +5601,14 @@
       <c r="F113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" t="s">
+        <v>396</v>
+      </c>
+      <c r="I113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5431,8 +5618,23 @@
       <c r="C114" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" t="s">
+        <v>395</v>
+      </c>
+      <c r="H114" t="s">
+        <v>401</v>
+      </c>
+      <c r="I114" t="s">
+        <v>395</v>
+      </c>
+      <c r="J114" t="s">
+        <v>421</v>
+      </c>
+      <c r="K114" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5451,8 +5653,23 @@
       <c r="F115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" t="s">
+        <v>395</v>
+      </c>
+      <c r="H115" t="s">
+        <v>401</v>
+      </c>
+      <c r="I115" t="s">
+        <v>395</v>
+      </c>
+      <c r="J115" t="s">
+        <v>421</v>
+      </c>
+      <c r="K115" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5471,8 +5688,17 @@
       <c r="F116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116" t="s">
+        <v>394</v>
+      </c>
+      <c r="I116" t="s">
+        <v>394</v>
+      </c>
+      <c r="K116" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5491,8 +5717,14 @@
       <c r="F117" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117" t="s">
+        <v>394</v>
+      </c>
+      <c r="I117" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5503,7 +5735,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5514,7 +5746,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5533,8 +5765,17 @@
       <c r="F120" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120" t="s">
+        <v>394</v>
+      </c>
+      <c r="I120" t="s">
+        <v>394</v>
+      </c>
+      <c r="K120" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5553,8 +5794,17 @@
       <c r="F121" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121" t="s">
+        <v>394</v>
+      </c>
+      <c r="I121" t="s">
+        <v>394</v>
+      </c>
+      <c r="K121" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5573,8 +5823,20 @@
       <c r="F122" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122" t="s">
+        <v>394</v>
+      </c>
+      <c r="I122" t="s">
+        <v>394</v>
+      </c>
+      <c r="K122" t="s">
+        <v>396</v>
+      </c>
+      <c r="L122" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5593,8 +5855,20 @@
       <c r="F123" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123" t="s">
+        <v>394</v>
+      </c>
+      <c r="I123" t="s">
+        <v>394</v>
+      </c>
+      <c r="K123" t="s">
+        <v>396</v>
+      </c>
+      <c r="L123" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5613,8 +5887,20 @@
       <c r="F124" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124" t="s">
+        <v>394</v>
+      </c>
+      <c r="I124" t="s">
+        <v>394</v>
+      </c>
+      <c r="K124" t="s">
+        <v>396</v>
+      </c>
+      <c r="L124" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5633,8 +5919,23 @@
       <c r="F125" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125" t="s">
+        <v>395</v>
+      </c>
+      <c r="H125" t="s">
+        <v>244</v>
+      </c>
+      <c r="I125" t="s">
+        <v>394</v>
+      </c>
+      <c r="K125" t="s">
+        <v>396</v>
+      </c>
+      <c r="L125" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5653,8 +5954,20 @@
       <c r="F126" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126" t="s">
+        <v>394</v>
+      </c>
+      <c r="I126" t="s">
+        <v>394</v>
+      </c>
+      <c r="K126" t="s">
+        <v>396</v>
+      </c>
+      <c r="L126" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5673,8 +5986,20 @@
       <c r="F127" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127" t="s">
+        <v>394</v>
+      </c>
+      <c r="I127" t="s">
+        <v>394</v>
+      </c>
+      <c r="K127" t="s">
+        <v>396</v>
+      </c>
+      <c r="L127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5693,8 +6018,20 @@
       <c r="F128" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128" t="s">
+        <v>396</v>
+      </c>
+      <c r="H128" t="s">
+        <v>424</v>
+      </c>
+      <c r="I128" t="s">
+        <v>394</v>
+      </c>
+      <c r="K128" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5713,8 +6050,20 @@
       <c r="F129" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129" t="s">
+        <v>396</v>
+      </c>
+      <c r="H129" t="s">
+        <v>424</v>
+      </c>
+      <c r="I129" t="s">
+        <v>394</v>
+      </c>
+      <c r="K129" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5733,8 +6082,17 @@
       <c r="F130" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130" t="s">
+        <v>396</v>
+      </c>
+      <c r="I130" t="s">
+        <v>396</v>
+      </c>
+      <c r="K130" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5753,8 +6111,17 @@
       <c r="F131" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" t="s">
+        <v>396</v>
+      </c>
+      <c r="I131" t="s">
+        <v>396</v>
+      </c>
+      <c r="K131" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5773,8 +6140,26 @@
       <c r="F132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132" t="s">
+        <v>395</v>
+      </c>
+      <c r="H132" t="s">
+        <v>426</v>
+      </c>
+      <c r="I132" t="s">
+        <v>395</v>
+      </c>
+      <c r="J132" t="s">
+        <v>425</v>
+      </c>
+      <c r="K132" t="s">
+        <v>395</v>
+      </c>
+      <c r="L132" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5785,7 +6170,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5804,8 +6189,17 @@
       <c r="F134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134" t="s">
+        <v>396</v>
+      </c>
+      <c r="I134" t="s">
+        <v>396</v>
+      </c>
+      <c r="K134" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5815,8 +6209,17 @@
       <c r="C135" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135" t="s">
+        <v>396</v>
+      </c>
+      <c r="I135" t="s">
+        <v>396</v>
+      </c>
+      <c r="K135" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5835,8 +6238,20 @@
       <c r="F136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136" t="s">
+        <v>394</v>
+      </c>
+      <c r="I136" t="s">
+        <v>395</v>
+      </c>
+      <c r="J136" t="s">
+        <v>427</v>
+      </c>
+      <c r="K136" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5855,8 +6270,20 @@
       <c r="F137" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137" t="s">
+        <v>394</v>
+      </c>
+      <c r="I137" t="s">
+        <v>395</v>
+      </c>
+      <c r="J137" t="s">
+        <v>427</v>
+      </c>
+      <c r="K137" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5875,8 +6302,20 @@
       <c r="F138" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138" t="s">
+        <v>394</v>
+      </c>
+      <c r="I138" t="s">
+        <v>394</v>
+      </c>
+      <c r="K138" t="s">
+        <v>396</v>
+      </c>
+      <c r="L138" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5895,8 +6334,20 @@
       <c r="F139" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139" t="s">
+        <v>395</v>
+      </c>
+      <c r="I139" t="s">
+        <v>394</v>
+      </c>
+      <c r="K139" t="s">
+        <v>396</v>
+      </c>
+      <c r="L139" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5915,8 +6366,17 @@
       <c r="F140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140" t="s">
+        <v>396</v>
+      </c>
+      <c r="I140" t="s">
+        <v>396</v>
+      </c>
+      <c r="K140" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5935,8 +6395,17 @@
       <c r="F141" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141" t="s">
+        <v>396</v>
+      </c>
+      <c r="I141" t="s">
+        <v>396</v>
+      </c>
+      <c r="K141" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5955,8 +6424,17 @@
       <c r="F142" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142" t="s">
+        <v>394</v>
+      </c>
+      <c r="I142" t="s">
+        <v>394</v>
+      </c>
+      <c r="K142" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5975,8 +6453,17 @@
       <c r="F143" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143" t="s">
+        <v>394</v>
+      </c>
+      <c r="I143" t="s">
+        <v>394</v>
+      </c>
+      <c r="K143" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5995,8 +6482,17 @@
       <c r="F144" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144" t="s">
+        <v>394</v>
+      </c>
+      <c r="I144" t="s">
+        <v>394</v>
+      </c>
+      <c r="K144" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6015,48 +6511,81 @@
       <c r="F145" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145" t="s">
+        <v>394</v>
+      </c>
+      <c r="I145" t="s">
+        <v>394</v>
+      </c>
+      <c r="K145" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>3309</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>3309</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J147" s="1"/>
+      <c r="K147" t="s">
+        <v>396</v>
+      </c>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6075,8 +6604,17 @@
       <c r="F148" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148" t="s">
+        <v>394</v>
+      </c>
+      <c r="I148" t="s">
+        <v>394</v>
+      </c>
+      <c r="K148" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6095,8 +6633,17 @@
       <c r="F149" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149" t="s">
+        <v>394</v>
+      </c>
+      <c r="I149" t="s">
+        <v>394</v>
+      </c>
+      <c r="K149" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6115,8 +6662,17 @@
       <c r="F150" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150" t="s">
+        <v>394</v>
+      </c>
+      <c r="I150" t="s">
+        <v>394</v>
+      </c>
+      <c r="K150" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6135,8 +6691,17 @@
       <c r="F151" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151" t="s">
+        <v>394</v>
+      </c>
+      <c r="I151" t="s">
+        <v>394</v>
+      </c>
+      <c r="K151" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6155,8 +6720,17 @@
       <c r="F152" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152" t="s">
+        <v>394</v>
+      </c>
+      <c r="I152" t="s">
+        <v>394</v>
+      </c>
+      <c r="K152" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6175,8 +6749,17 @@
       <c r="F153" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153" t="s">
+        <v>394</v>
+      </c>
+      <c r="I153" t="s">
+        <v>394</v>
+      </c>
+      <c r="K153" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6186,8 +6769,17 @@
       <c r="C154" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154" t="s">
+        <v>396</v>
+      </c>
+      <c r="I154" t="s">
+        <v>396</v>
+      </c>
+      <c r="K154" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6206,8 +6798,17 @@
       <c r="F155" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155" t="s">
+        <v>396</v>
+      </c>
+      <c r="I155" t="s">
+        <v>396</v>
+      </c>
+      <c r="K155" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6226,8 +6827,20 @@
       <c r="F156" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156" t="s">
+        <v>394</v>
+      </c>
+      <c r="I156" t="s">
+        <v>394</v>
+      </c>
+      <c r="K156" t="s">
+        <v>396</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6246,8 +6859,18 @@
       <c r="F157" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157" t="s">
+        <v>394</v>
+      </c>
+      <c r="I157" t="s">
+        <v>394</v>
+      </c>
+      <c r="K157" t="s">
+        <v>396</v>
+      </c>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6266,8 +6889,17 @@
       <c r="F158" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158" t="s">
+        <v>394</v>
+      </c>
+      <c r="I158" t="s">
+        <v>394</v>
+      </c>
+      <c r="K158" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6286,8 +6918,17 @@
       <c r="F159" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" t="s">
+        <v>394</v>
+      </c>
+      <c r="K159" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6306,8 +6947,17 @@
       <c r="F160" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160" t="s">
+        <v>394</v>
+      </c>
+      <c r="I160" t="s">
+        <v>394</v>
+      </c>
+      <c r="K160" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6326,8 +6976,17 @@
       <c r="F161" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161" t="s">
+        <v>394</v>
+      </c>
+      <c r="I161" t="s">
+        <v>394</v>
+      </c>
+      <c r="K161" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6346,8 +7005,26 @@
       <c r="F162" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162" t="s">
+        <v>395</v>
+      </c>
+      <c r="H162" t="s">
+        <v>429</v>
+      </c>
+      <c r="I162" t="s">
+        <v>395</v>
+      </c>
+      <c r="J162" t="s">
+        <v>430</v>
+      </c>
+      <c r="K162" t="s">
+        <v>395</v>
+      </c>
+      <c r="L162" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6366,8 +7043,26 @@
       <c r="F163" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163" t="s">
+        <v>395</v>
+      </c>
+      <c r="H163" t="s">
+        <v>429</v>
+      </c>
+      <c r="I163" t="s">
+        <v>395</v>
+      </c>
+      <c r="J163" t="s">
+        <v>430</v>
+      </c>
+      <c r="K163" t="s">
+        <v>395</v>
+      </c>
+      <c r="L163" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6386,8 +7081,17 @@
       <c r="F164" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164" t="s">
+        <v>394</v>
+      </c>
+      <c r="I164" t="s">
+        <v>394</v>
+      </c>
+      <c r="K164" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6406,8 +7110,17 @@
       <c r="F165" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165" t="s">
+        <v>394</v>
+      </c>
+      <c r="I165" t="s">
+        <v>394</v>
+      </c>
+      <c r="K165" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6426,8 +7139,20 @@
       <c r="F166" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166" t="s">
+        <v>394</v>
+      </c>
+      <c r="I166" t="s">
+        <v>394</v>
+      </c>
+      <c r="K166" t="s">
+        <v>396</v>
+      </c>
+      <c r="L166" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6446,8 +7171,20 @@
       <c r="F167" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167" t="s">
+        <v>394</v>
+      </c>
+      <c r="I167" t="s">
+        <v>394</v>
+      </c>
+      <c r="K167" t="s">
+        <v>396</v>
+      </c>
+      <c r="L167" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6466,8 +7203,17 @@
       <c r="F168" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168" t="s">
+        <v>394</v>
+      </c>
+      <c r="I168" t="s">
+        <v>394</v>
+      </c>
+      <c r="K168" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6486,8 +7232,17 @@
       <c r="F169" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169" t="s">
+        <v>394</v>
+      </c>
+      <c r="I169" t="s">
+        <v>394</v>
+      </c>
+      <c r="K169" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6506,8 +7261,17 @@
       <c r="F170" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170" t="s">
+        <v>394</v>
+      </c>
+      <c r="I170" t="s">
+        <v>394</v>
+      </c>
+      <c r="K170" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6526,8 +7290,17 @@
       <c r="F171" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171" t="s">
+        <v>394</v>
+      </c>
+      <c r="I171" t="s">
+        <v>394</v>
+      </c>
+      <c r="K171" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6546,8 +7319,20 @@
       <c r="F172" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172" t="s">
+        <v>394</v>
+      </c>
+      <c r="I172" t="s">
+        <v>394</v>
+      </c>
+      <c r="K172" t="s">
+        <v>395</v>
+      </c>
+      <c r="L172" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6566,8 +7351,20 @@
       <c r="F173" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173" t="s">
+        <v>394</v>
+      </c>
+      <c r="I173" t="s">
+        <v>394</v>
+      </c>
+      <c r="K173" t="s">
+        <v>395</v>
+      </c>
+      <c r="L173" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6586,8 +7383,20 @@
       <c r="F174" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174" t="s">
+        <v>394</v>
+      </c>
+      <c r="I174" t="s">
+        <v>394</v>
+      </c>
+      <c r="K174" t="s">
+        <v>395</v>
+      </c>
+      <c r="L174" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6606,8 +7415,20 @@
       <c r="F175" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175" t="s">
+        <v>394</v>
+      </c>
+      <c r="I175" t="s">
+        <v>394</v>
+      </c>
+      <c r="K175" t="s">
+        <v>395</v>
+      </c>
+      <c r="L175" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6626,8 +7447,20 @@
       <c r="F176" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176" t="s">
+        <v>394</v>
+      </c>
+      <c r="I176" t="s">
+        <v>394</v>
+      </c>
+      <c r="K176" t="s">
+        <v>396</v>
+      </c>
+      <c r="L176" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6646,8 +7479,20 @@
       <c r="F177" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177" t="s">
+        <v>394</v>
+      </c>
+      <c r="I177" t="s">
+        <v>394</v>
+      </c>
+      <c r="K177" t="s">
+        <v>396</v>
+      </c>
+      <c r="L177" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6666,8 +7511,17 @@
       <c r="F178" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178" t="s">
+        <v>396</v>
+      </c>
+      <c r="I178" t="s">
+        <v>396</v>
+      </c>
+      <c r="K178" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6677,8 +7531,17 @@
       <c r="C179" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179" t="s">
+        <v>396</v>
+      </c>
+      <c r="I179" t="s">
+        <v>396</v>
+      </c>
+      <c r="K179" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6697,8 +7560,20 @@
       <c r="F180" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180" t="s">
+        <v>394</v>
+      </c>
+      <c r="I180" t="s">
+        <v>394</v>
+      </c>
+      <c r="K180" t="s">
+        <v>396</v>
+      </c>
+      <c r="L180" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6717,8 +7592,20 @@
       <c r="F181" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181" t="s">
+        <v>394</v>
+      </c>
+      <c r="I181" t="s">
+        <v>394</v>
+      </c>
+      <c r="K181" t="s">
+        <v>395</v>
+      </c>
+      <c r="L181" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6737,8 +7624,17 @@
       <c r="F182" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182" t="s">
+        <v>394</v>
+      </c>
+      <c r="I182" t="s">
+        <v>394</v>
+      </c>
+      <c r="K182" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6757,8 +7653,17 @@
       <c r="F183" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183" t="s">
+        <v>394</v>
+      </c>
+      <c r="I183" t="s">
+        <v>394</v>
+      </c>
+      <c r="K183" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6769,7 +7674,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6788,8 +7693,17 @@
       <c r="F185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185" t="s">
+        <v>394</v>
+      </c>
+      <c r="I185" t="s">
+        <v>394</v>
+      </c>
+      <c r="K185" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6799,8 +7713,17 @@
       <c r="C186" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186" t="s">
+        <v>396</v>
+      </c>
+      <c r="I186" t="s">
+        <v>396</v>
+      </c>
+      <c r="K186" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6819,8 +7742,17 @@
       <c r="F187" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187" t="s">
+        <v>396</v>
+      </c>
+      <c r="I187" t="s">
+        <v>396</v>
+      </c>
+      <c r="K187" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6839,8 +7771,17 @@
       <c r="F188" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188" t="s">
+        <v>394</v>
+      </c>
+      <c r="I188" t="s">
+        <v>394</v>
+      </c>
+      <c r="K188" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6859,8 +7800,17 @@
       <c r="F189" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189" t="s">
+        <v>394</v>
+      </c>
+      <c r="I189" t="s">
+        <v>394</v>
+      </c>
+      <c r="K189" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6879,8 +7829,17 @@
       <c r="F190" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190" t="s">
+        <v>394</v>
+      </c>
+      <c r="I190" t="s">
+        <v>394</v>
+      </c>
+      <c r="K190" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6899,8 +7858,17 @@
       <c r="F191" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191" t="s">
+        <v>394</v>
+      </c>
+      <c r="I191" t="s">
+        <v>394</v>
+      </c>
+      <c r="K191" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6919,8 +7887,23 @@
       <c r="F192" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192" t="s">
+        <v>395</v>
+      </c>
+      <c r="H192" t="s">
+        <v>435</v>
+      </c>
+      <c r="I192" t="s">
+        <v>395</v>
+      </c>
+      <c r="J192" t="s">
+        <v>436</v>
+      </c>
+      <c r="K192" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6939,8 +7922,23 @@
       <c r="F193" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193" t="s">
+        <v>395</v>
+      </c>
+      <c r="H193" t="s">
+        <v>435</v>
+      </c>
+      <c r="I193" t="s">
+        <v>395</v>
+      </c>
+      <c r="J193" t="s">
+        <v>436</v>
+      </c>
+      <c r="K193" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6959,8 +7957,17 @@
       <c r="F194" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194" t="s">
+        <v>394</v>
+      </c>
+      <c r="I194" t="s">
+        <v>394</v>
+      </c>
+      <c r="K194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6979,8 +7986,17 @@
       <c r="F195" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" t="s">
+        <v>394</v>
+      </c>
+      <c r="I195" t="s">
+        <v>394</v>
+      </c>
+      <c r="K195" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6999,8 +8015,26 @@
       <c r="F196" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196" t="s">
+        <v>395</v>
+      </c>
+      <c r="H196" t="s">
+        <v>437</v>
+      </c>
+      <c r="I196" t="s">
+        <v>395</v>
+      </c>
+      <c r="J196" t="s">
+        <v>438</v>
+      </c>
+      <c r="K196" t="s">
+        <v>395</v>
+      </c>
+      <c r="L196" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7019,8 +8053,26 @@
       <c r="F197" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197" t="s">
+        <v>395</v>
+      </c>
+      <c r="H197" t="s">
+        <v>437</v>
+      </c>
+      <c r="I197" t="s">
+        <v>395</v>
+      </c>
+      <c r="J197" t="s">
+        <v>438</v>
+      </c>
+      <c r="K197" t="s">
+        <v>395</v>
+      </c>
+      <c r="L197" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7039,8 +8091,17 @@
       <c r="F198" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198" t="s">
+        <v>394</v>
+      </c>
+      <c r="I198" t="s">
+        <v>394</v>
+      </c>
+      <c r="K198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7059,8 +8120,17 @@
       <c r="F199" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199" t="s">
+        <v>394</v>
+      </c>
+      <c r="I199" t="s">
+        <v>394</v>
+      </c>
+      <c r="K199" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7079,8 +8149,17 @@
       <c r="F200" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200" t="s">
+        <v>394</v>
+      </c>
+      <c r="I200" t="s">
+        <v>394</v>
+      </c>
+      <c r="K200" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7099,17 +8178,28 @@
       <c r="F201" t="s">
         <v>20</v>
       </c>
+      <c r="G201" t="s">
+        <v>394</v>
+      </c>
+      <c r="I201" t="s">
+        <v>394</v>
+      </c>
+      <c r="K201" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 I2:I1048576 K2:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H116:I117 I118:I1048576 G2:G1048576 I2:I115 K2:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E89" r:id="rId1" xr:uid="{DA683BC4-9C40-413D-9F6E-353422D3C2C4}"/>
+    <hyperlink ref="E104" r:id="rId2" xr:uid="{DD3D54D7-1B75-4BA6-A6B5-8F6D98DB433A}"/>
+    <hyperlink ref="E146" r:id="rId3" xr:uid="{8AD629DB-C891-4D08-A772-EF11A4541BD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/comparison/promt2_prompt4.xlsx
+++ b/data/comparison/promt2_prompt4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F47BC-5EB9-467D-89EC-50228B0825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476F942-5AD0-4F1F-A945-217F6B45ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="439">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2203,12 +2203,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K200" sqref="K200:K201"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2226,7 +2226,7 @@
     <col min="12" max="12" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2289,11 +2289,8 @@
       <c r="K2" t="s">
         <v>396</v>
       </c>
-      <c r="O2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2321,11 +2318,8 @@
       <c r="K3" t="s">
         <v>396</v>
       </c>
-      <c r="O3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2356,11 +2350,8 @@
       <c r="L4" t="s">
         <v>397</v>
       </c>
-      <c r="O4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2392,7 +2383,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2421,7 +2412,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2450,7 +2441,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2482,7 +2473,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2514,7 +2505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2534,7 +2525,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2563,7 +2554,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2592,7 +2583,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2621,7 +2612,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2650,7 +2641,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2679,7 +2670,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5062,6 +5053,15 @@
       <c r="C94" t="s">
         <v>194</v>
       </c>
+      <c r="G94" t="s">
+        <v>395</v>
+      </c>
+      <c r="I94" t="s">
+        <v>395</v>
+      </c>
+      <c r="K94" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
@@ -5160,6 +5160,15 @@
       <c r="C98" t="s">
         <v>199</v>
       </c>
+      <c r="G98" t="s">
+        <v>395</v>
+      </c>
+      <c r="I98" t="s">
+        <v>395</v>
+      </c>
+      <c r="K98" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
@@ -5581,6 +5590,9 @@
       <c r="I112" t="s">
         <v>396</v>
       </c>
+      <c r="K112" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
@@ -5607,6 +5619,9 @@
       <c r="I113" t="s">
         <v>396</v>
       </c>
+      <c r="K113" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
@@ -5723,6 +5738,9 @@
       <c r="I117" t="s">
         <v>394</v>
       </c>
+      <c r="K117" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
@@ -5734,6 +5752,15 @@
       <c r="C118" t="s">
         <v>236</v>
       </c>
+      <c r="G118" t="s">
+        <v>396</v>
+      </c>
+      <c r="I118" t="s">
+        <v>396</v>
+      </c>
+      <c r="K118" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
@@ -5745,6 +5772,15 @@
       <c r="C119" t="s">
         <v>236</v>
       </c>
+      <c r="G119" t="s">
+        <v>396</v>
+      </c>
+      <c r="I119" t="s">
+        <v>396</v>
+      </c>
+      <c r="K119" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
@@ -6169,6 +6205,15 @@
       <c r="C133" t="s">
         <v>259</v>
       </c>
+      <c r="G133" t="s">
+        <v>395</v>
+      </c>
+      <c r="I133" t="s">
+        <v>395</v>
+      </c>
+      <c r="K133" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
@@ -7673,6 +7718,15 @@
       <c r="C184" t="s">
         <v>353</v>
       </c>
+      <c r="G184" t="s">
+        <v>395</v>
+      </c>
+      <c r="I184" t="s">
+        <v>395</v>
+      </c>
+      <c r="K184" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
@@ -8190,7 +8244,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H116:I117 I118:I1048576 G2:G1048576 I2:I115 K2:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H116:H117" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/comparison/promt2_prompt4.xlsx
+++ b/data/comparison/promt2_prompt4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476F942-5AD0-4F1F-A945-217F6B45ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB184E-EC2F-4318-9F3F-3C03E4208200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="promt2_prompt4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="440">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t>https://www.ansira.com/</t>
+  </si>
+  <si>
+    <t>27 total</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,6 +1682,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1841,12 +1856,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2203,12 +2220,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2399,7 +2416,7 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
@@ -2428,7 +2445,7 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
@@ -2564,10 +2581,10 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
@@ -2593,10 +2610,10 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
@@ -2628,7 +2645,7 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G14" t="s">
@@ -2657,7 +2674,7 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
@@ -2686,7 +2703,7 @@
       <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G16" t="s">
@@ -2718,7 +2735,7 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
@@ -2869,7 +2886,7 @@
       <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
@@ -2901,7 +2918,7 @@
       <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
@@ -2982,10 +2999,10 @@
       <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
@@ -3014,10 +3031,10 @@
       <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F27" t="s">
@@ -3049,7 +3066,7 @@
       <c r="E28" t="s">
         <v>67</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
@@ -3081,7 +3098,7 @@
       <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G29" t="s">
@@ -3107,9 +3124,10 @@
       <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="E30" s="4"/>
       <c r="F30" t="s">
         <v>13</v>
       </c>
@@ -3139,10 +3157,10 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F31" t="s">
@@ -3308,13 +3326,13 @@
       <c r="C36" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G36" t="s">
@@ -3343,13 +3361,13 @@
       <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G37" t="s">
@@ -3610,10 +3628,10 @@
       <c r="C46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F46" t="s">
@@ -3639,10 +3657,10 @@
       <c r="C47" t="s">
         <v>96</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F47" t="s">
@@ -3674,7 +3692,7 @@
       <c r="E48" t="s">
         <v>103</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G48" t="s">
@@ -3706,7 +3724,7 @@
       <c r="E49" t="s">
         <v>104</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G49" t="s">
@@ -3976,7 +3994,7 @@
       <c r="E58" t="s">
         <v>120</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G58" t="s">
@@ -4005,7 +4023,7 @@
       <c r="E59" t="s">
         <v>120</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G59" t="s">
@@ -4028,10 +4046,10 @@
       <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F60" t="s">
@@ -4057,10 +4075,10 @@
       <c r="C61" t="s">
         <v>122</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F61" t="s">
@@ -4208,7 +4226,7 @@
       <c r="E66" t="s">
         <v>136</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G66" t="s">
@@ -4237,7 +4255,7 @@
       <c r="E67" t="s">
         <v>137</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G67" t="s">
@@ -4400,7 +4418,7 @@
       <c r="E72" t="s">
         <v>148</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G72" t="s">
@@ -4429,7 +4447,7 @@
       <c r="E73" t="s">
         <v>148</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G73" t="s">
@@ -4516,13 +4534,13 @@
       <c r="C76" t="s">
         <v>154</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G76" t="s">
@@ -4548,13 +4566,13 @@
       <c r="C77" t="s">
         <v>154</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G77" t="s">
@@ -4586,7 +4604,7 @@
       <c r="E78" t="s">
         <v>161</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G78" t="s">
@@ -4615,7 +4633,7 @@
       <c r="E79" t="s">
         <v>159</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G79" t="s">
@@ -4891,13 +4909,13 @@
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4917,13 +4935,13 @@
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>183</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -5273,7 +5291,7 @@
       <c r="E102" t="s">
         <v>208</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G102" t="s">
@@ -5305,7 +5323,7 @@
       <c r="E103" t="s">
         <v>208</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G103" t="s">
@@ -5334,7 +5352,7 @@
       <c r="D104" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F104" t="s">
@@ -5517,7 +5535,7 @@
       <c r="E110" t="s">
         <v>223</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G110" t="s">
@@ -5549,7 +5567,7 @@
       <c r="E111" t="s">
         <v>223</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G111" t="s">
@@ -5700,7 +5718,7 @@
       <c r="E116" t="s">
         <v>234</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G116" t="s">
@@ -5729,7 +5747,7 @@
       <c r="E117" t="s">
         <v>232</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G117" t="s">
@@ -5987,7 +6005,7 @@
       <c r="E126" t="s">
         <v>250</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G126" t="s">
@@ -6019,7 +6037,7 @@
       <c r="E127" t="s">
         <v>250</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G127" t="s">
@@ -6280,7 +6298,7 @@
       <c r="E136" t="s">
         <v>267</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G136" t="s">
@@ -6312,7 +6330,7 @@
       <c r="E137" t="s">
         <v>267</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G137" t="s">
@@ -6344,7 +6362,7 @@
       <c r="E138" t="s">
         <v>270</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G138" t="s">
@@ -6376,7 +6394,7 @@
       <c r="E139" t="s">
         <v>272</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G139" t="s">
@@ -6466,7 +6484,7 @@
       <c r="E142" t="s">
         <v>278</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="4" t="s">
         <v>279</v>
       </c>
       <c r="G142" t="s">
@@ -6495,7 +6513,7 @@
       <c r="E143" t="s">
         <v>280</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G143" t="s">
@@ -6576,13 +6594,13 @@
       <c r="C146" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -6608,13 +6626,13 @@
       <c r="C147" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -6881,7 +6899,7 @@
       <c r="K156" t="s">
         <v>396</v>
       </c>
-      <c r="L156" s="4" t="s">
+      <c r="L156" s="3" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6913,7 +6931,7 @@
       <c r="K157" t="s">
         <v>396</v>
       </c>
-      <c r="L157" s="4"/>
+      <c r="L157" s="3"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
@@ -7602,7 +7620,7 @@
       <c r="E180" t="s">
         <v>347</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G180" t="s">
@@ -7634,7 +7652,7 @@
       <c r="E181" t="s">
         <v>349</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G181" t="s">
@@ -7932,13 +7950,13 @@
       <c r="C192" t="s">
         <v>367</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G192" t="s">
@@ -7967,13 +7985,13 @@
       <c r="C193" t="s">
         <v>367</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G193" t="s">
@@ -8066,7 +8084,7 @@
       <c r="E196" t="s">
         <v>379</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G196" t="s">
@@ -8104,7 +8122,7 @@
       <c r="E197" t="s">
         <v>380</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="4" t="s">
         <v>381</v>
       </c>
       <c r="G197" t="s">
@@ -8240,6 +8258,22 @@
       </c>
       <c r="K201" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F205" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
